--- a/biology/Zoologie/Cryptachaea_meraukensis/Cryptachaea_meraukensis.xlsx
+++ b/biology/Zoologie/Cryptachaea_meraukensis/Cryptachaea_meraukensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptachaea meraukensis est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptachaea meraukensis est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée[1].
-Sa présence est affirmé par Ron Atkinson dans le Nord du Queensland en Australie[2] mais elle n'est pas citée dans les espèces australiennes par Smith, Vink, Fitzgerald et Sirvid, 2012[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée.
+Sa présence est affirmé par Ron Atkinson dans le Nord du Queensland en Australie mais elle n'est pas citée dans les espèces australiennes par Smith, Vink, Fitzgerald et Sirvid, 2012.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ne mesure 3 mm en moyenne pour les femelles et 2 mm pour les mâles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ne mesure 3 mm en moyenne pour les femelles et 2 mm pour les mâles.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1963 par Pater Chrysanthus dans le genre Achaearanea, elle a été transférée dans le genre Cryptachaea par Hajime Yoshida en 2008[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1963 par Pater Chrysanthus dans le genre Achaearanea, elle a été transférée dans le genre Cryptachaea par Hajime Yoshida en 2008.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de merauke et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte : Merauke.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chrysanthus, 1963 : Spiders from south New Guinea V. Nova Guinea, new series Zoology, vol. 24, p. 727-750.</t>
         </is>
